--- a/类别1总体分析.xlsx
+++ b/类别1总体分析.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="760" yWindow="460" windowWidth="26880" windowHeight="17540" tabRatio="500" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="760" yWindow="460" windowWidth="26880" windowHeight="17540" tabRatio="500" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="第一类任务总体透视表" sheetId="12" r:id="rId1"/>
@@ -24,12 +24,12 @@
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId10"/>
-    <pivotCache cacheId="1" r:id="rId11"/>
-    <pivotCache cacheId="2" r:id="rId12"/>
-    <pivotCache cacheId="3" r:id="rId13"/>
-    <pivotCache cacheId="4" r:id="rId14"/>
-    <pivotCache cacheId="5" r:id="rId15"/>
+    <pivotCache cacheId="4" r:id="rId10"/>
+    <pivotCache cacheId="6" r:id="rId11"/>
+    <pivotCache cacheId="7" r:id="rId12"/>
+    <pivotCache cacheId="8" r:id="rId13"/>
+    <pivotCache cacheId="12" r:id="rId14"/>
+    <pivotCache cacheId="15" r:id="rId15"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -2568,11 +2568,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1623380480"/>
-        <c:axId val="1623382800"/>
+        <c:axId val="2113815440"/>
+        <c:axId val="2127942784"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1623380480"/>
+        <c:axId val="2113815440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2615,7 +2615,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1623382800"/>
+        <c:crossAx val="2127942784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2623,7 +2623,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1623382800"/>
+        <c:axId val="2127942784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2674,7 +2674,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1623380480"/>
+        <c:crossAx val="2113815440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2790,7 +2790,7 @@
                   <c:v>0.0402298850574713</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.149425287356322</c:v>
+                  <c:v>0.155172413793103</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.00574712643678161</c:v>
@@ -2808,7 +2808,7 @@
                   <c:v>0.00574712643678161</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.367816091954023</c:v>
+                  <c:v>0.362068965517241</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.0517241379310345</c:v>
@@ -2833,11 +2833,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1623415664"/>
-        <c:axId val="1623418416"/>
+        <c:axId val="2128062576"/>
+        <c:axId val="2128065328"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1623415664"/>
+        <c:axId val="2128062576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2880,7 +2880,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1623418416"/>
+        <c:crossAx val="2128065328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2888,7 +2888,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1623418416"/>
+        <c:axId val="2128065328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2939,7 +2939,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1623415664"/>
+        <c:crossAx val="2128062576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4168,39 +4168,6 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Microsoft Office 用户" refreshedDate="42902.546055555555" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="176">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="K1:K1048576" sheet="task2 qc + qcq"/>
-  </cacheSource>
-  <cacheFields count="1">
-    <cacheField name="编码：粒度（细：00，中：01，粗：10），切题（0，1），粒度（细：00，等：01，粗：10）" numFmtId="0">
-      <sharedItems containsBlank="1" count="14">
-        <m/>
-        <s v="10100"/>
-        <s v="01000"/>
-        <s v="01100"/>
-        <s v="00100"/>
-        <s v="01110"/>
-        <s v="01101"/>
-        <s v="00001"/>
-        <s v="00000"/>
-        <s v="01010"/>
-        <s v="00110"/>
-        <s v="00010"/>
-        <s v="01001"/>
-        <s v="00101"/>
-      </sharedItems>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Microsoft Office 用户" refreshedDate="42902.546057060186" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="364">
   <cacheSource type="worksheet">
     <worksheetSource ref="B1:B1048576" sheet="第一类任务点击去重后切题性比例分析"/>
@@ -4222,7 +4189,7 @@
 </pivotCacheDefinition>
 </file>
 
-<file path=xl/pivotCache/pivotCacheDefinition4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Microsoft Office 用户" refreshedDate="42902.546086921298" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="143">
   <cacheSource type="worksheet">
     <worksheetSource ref="B1:B1048576" sheet="第一类任务查询去重后比例分析"/>
@@ -4245,7 +4212,7 @@
 </pivotCacheDefinition>
 </file>
 
-<file path=xl/pivotCache/pivotCacheDefinition5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotCache/pivotCacheDefinition4.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Microsoft Office 用户" refreshedDate="42902.546088657407" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="192">
   <cacheSource type="worksheet">
     <worksheetSource ref="K1:K1048576" sheet="task1 qc + qcq"/>
@@ -4278,8 +4245,8 @@
 </pivotCacheDefinition>
 </file>
 
-<file path=xl/pivotCache/pivotCacheDefinition6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Microsoft Office 用户" refreshedDate="42902.546348148149" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="366">
+<file path=xl/pivotCache/pivotCacheDefinition5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Microsoft Office 用户" refreshedDate="42903.658263657409" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="366">
   <cacheSource type="worksheet">
     <worksheetSource ref="K1:K1048576" sheet="第一类任务总体qc + qcq"/>
   </cacheSource>
@@ -4312,13 +4279,1021 @@
 </pivotCacheDefinition>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Microsoft Office 用户" refreshedDate="42903.658414583333" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="176">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="K1:K1048576" sheet="task2 qc + qcq"/>
+  </cacheSource>
+  <cacheFields count="1">
+    <cacheField name="编码：粒度（细：00，中：01，粗：10），切题（0，1），粒度（细：00，等：01，粗：10）" numFmtId="0">
+      <sharedItems containsBlank="1" count="14">
+        <m/>
+        <s v="10100"/>
+        <s v="01000"/>
+        <s v="01100"/>
+        <s v="00100"/>
+        <s v="01110"/>
+        <s v="01101"/>
+        <s v="00001"/>
+        <s v="00000"/>
+        <s v="01010"/>
+        <s v="00110"/>
+        <s v="00010"/>
+        <s v="01001"/>
+        <s v="00101"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="176">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="364">
   <r>
     <x v="0"/>
   </r>
   <r>
-    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
   </r>
   <r>
     <x v="1"/>
@@ -4330,99 +5305,15 @@
     <x v="2"/>
   </r>
   <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
     <x v="2"/>
   </r>
   <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
     <x v="2"/>
   </r>
   <r>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
     <x v="2"/>
   </r>
   <r>
-    <x v="3"/>
-  </r>
-  <r>
     <x v="2"/>
   </r>
   <r>
@@ -4435,105 +5326,12 @@
     <x v="2"/>
   </r>
   <r>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="8"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
     <x v="2"/>
   </r>
   <r>
     <x v="2"/>
   </r>
   <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="5"/>
-  </r>
-  <r>
     <x v="2"/>
   </r>
   <r>
@@ -4543,350 +5341,110 @@
     <x v="2"/>
   </r>
   <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="9"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="8"/>
-  </r>
-  <r>
-    <x v="8"/>
-  </r>
-  <r>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="10"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="11"/>
-  </r>
-  <r>
-    <x v="10"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
     <x v="2"/>
   </r>
   <r>
     <x v="2"/>
   </r>
   <r>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
     <x v="2"/>
   </r>
   <r>
     <x v="2"/>
   </r>
   <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="8"/>
-  </r>
-  <r>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="8"/>
-  </r>
-  <r>
-    <x v="8"/>
-  </r>
-  <r>
-    <x v="8"/>
-  </r>
-  <r>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="8"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
     <x v="2"/>
   </r>
   <r>
-    <x v="3"/>
-  </r>
-  <r>
     <x v="2"/>
   </r>
   <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="10"/>
-  </r>
-  <r>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="13"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
     <x v="2"/>
   </r>
   <r>
     <x v="2"/>
   </r>
   <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
     <x v="2"/>
   </r>
   <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="364">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="143">
   <r>
     <x v="0"/>
   </r>
   <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
     <x v="0"/>
   </r>
   <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
     <x v="0"/>
   </r>
   <r>
     <x v="0"/>
   </r>
   <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
     <x v="0"/>
   </r>
   <r>
     <x v="1"/>
   </r>
   <r>
-    <x v="1"/>
-  </r>
-  <r>
     <x v="0"/>
   </r>
   <r>
@@ -4899,40 +5457,10 @@
     <x v="0"/>
   </r>
   <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
   </r>
   <r>
     <x v="1"/>
@@ -4950,42 +5478,24 @@
     <x v="1"/>
   </r>
   <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
     <x v="0"/>
   </r>
   <r>
-    <x v="1"/>
-  </r>
-  <r>
     <x v="0"/>
   </r>
   <r>
     <x v="1"/>
   </r>
   <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
     <x v="0"/>
   </r>
   <r>
@@ -4995,18 +5505,9 @@
     <x v="1"/>
   </r>
   <r>
-    <x v="1"/>
-  </r>
-  <r>
     <x v="0"/>
   </r>
   <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
     <x v="0"/>
   </r>
   <r>
@@ -5019,90 +5520,48 @@
     <x v="1"/>
   </r>
   <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
     <x v="0"/>
   </r>
   <r>
-    <x v="1"/>
-  </r>
-  <r>
     <x v="0"/>
   </r>
   <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
     <x v="0"/>
   </r>
   <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
     <x v="0"/>
   </r>
   <r>
     <x v="0"/>
   </r>
   <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
     <x v="1"/>
   </r>
   <r>
@@ -5115,51 +5574,15 @@
     <x v="1"/>
   </r>
   <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
     <x v="0"/>
   </r>
   <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
     <x v="0"/>
   </r>
   <r>
+    <x v="1"/>
+  </r>
+  <r>
     <x v="0"/>
   </r>
   <r>
@@ -5169,42 +5592,9 @@
     <x v="1"/>
   </r>
   <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
     <x v="0"/>
   </r>
   <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
     <x v="0"/>
   </r>
   <r>
@@ -5214,21 +5604,9 @@
     <x v="1"/>
   </r>
   <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
     <x v="0"/>
   </r>
   <r>
-    <x v="1"/>
-  </r>
-  <r>
     <x v="0"/>
   </r>
   <r>
@@ -5253,45 +5631,15 @@
     <x v="1"/>
   </r>
   <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
     <x v="0"/>
   </r>
   <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
     <x v="0"/>
   </r>
   <r>
     <x v="0"/>
   </r>
   <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
     <x v="0"/>
   </r>
   <r>
@@ -5304,96 +5652,42 @@
     <x v="1"/>
   </r>
   <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="0"/>
   </r>
   <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
     <x v="0"/>
   </r>
   <r>
-    <x v="1"/>
-  </r>
-  <r>
     <x v="0"/>
   </r>
   <r>
+    <x v="1"/>
+  </r>
+  <r>
     <x v="0"/>
   </r>
   <r>
     <x v="0"/>
   </r>
   <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
     <x v="0"/>
   </r>
   <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
     <x v="0"/>
   </r>
   <r>
+    <x v="1"/>
+  </r>
+  <r>
     <x v="0"/>
   </r>
   <r>
-    <x v="1"/>
-  </r>
-  <r>
     <x v="0"/>
   </r>
   <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
     <x v="0"/>
   </r>
   <r>
@@ -5403,72 +5697,12 @@
     <x v="1"/>
   </r>
   <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
     <x v="0"/>
   </r>
   <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
     <x v="0"/>
   </r>
   <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
     <x v="0"/>
   </r>
   <r>
@@ -5478,6 +5712,9 @@
     <x v="0"/>
   </r>
   <r>
+    <x v="1"/>
+  </r>
+  <r>
     <x v="0"/>
   </r>
   <r>
@@ -5487,57 +5724,6 @@
     <x v="0"/>
   </r>
   <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
     <x v="0"/>
   </r>
   <r>
@@ -5547,12 +5733,6 @@
     <x v="1"/>
   </r>
   <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
     <x v="0"/>
   </r>
   <r>
@@ -5571,51 +5751,24 @@
     <x v="0"/>
   </r>
   <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
     <x v="0"/>
   </r>
   <r>
-    <x v="1"/>
-  </r>
-  <r>
     <x v="0"/>
   </r>
   <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
     <x v="0"/>
   </r>
   <r>
@@ -5628,90 +5781,12 @@
     <x v="0"/>
   </r>
   <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
     <x v="0"/>
   </r>
   <r>
     <x v="1"/>
   </r>
   <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
     <x v="0"/>
   </r>
   <r>
@@ -5730,15 +5805,27 @@
     <x v="0"/>
   </r>
   <r>
+    <x v="1"/>
+  </r>
+  <r>
     <x v="0"/>
   </r>
   <r>
     <x v="0"/>
   </r>
   <r>
+    <x v="1"/>
+  </r>
+  <r>
     <x v="0"/>
   </r>
   <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
     <x v="0"/>
   </r>
   <r>
@@ -5748,202 +5835,16 @@
     <x v="0"/>
   </r>
   <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
     <x v="0"/>
   </r>
   <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="2"/>
+    <x v="3"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="143">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="192">
   <r>
     <x v="0"/>
   </r>
@@ -5951,433 +5852,580 @@
     <x v="1"/>
   </r>
   <r>
+    <x v="1"/>
+  </r>
+  <r>
     <x v="2"/>
   </r>
   <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
     <x v="0"/>
   </r>
   <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
     <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="3"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="192">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="366">
   <r>
     <x v="0"/>
   </r>
@@ -6950,6 +6998,528 @@
   </r>
   <r>
     <x v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
   </r>
   <r>
     <x v="0"/>
@@ -6958,7 +7528,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="366">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="176">
   <r>
     <x v="0"/>
   </r>
@@ -6972,6 +7542,9 @@
     <x v="2"/>
   </r>
   <r>
+    <x v="2"/>
+  </r>
+  <r>
     <x v="3"/>
   </r>
   <r>
@@ -6984,39 +7557,87 @@
     <x v="3"/>
   </r>
   <r>
+    <x v="2"/>
+  </r>
+  <r>
     <x v="3"/>
   </r>
   <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="4"/>
   </r>
   <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
     <x v="4"/>
   </r>
   <r>
-    <x v="1"/>
-  </r>
-  <r>
     <x v="4"/>
   </r>
   <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="3"/>
   </r>
   <r>
     <x v="2"/>
   </r>
   <r>
+    <x v="3"/>
+  </r>
+  <r>
     <x v="2"/>
   </r>
   <r>
@@ -7026,52 +7647,361 @@
     <x v="2"/>
   </r>
   <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
     <x v="4"/>
   </r>
   <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
     <x v="4"/>
   </r>
   <r>
+    <x v="8"/>
+  </r>
+  <r>
     <x v="4"/>
   </r>
   <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
     <x v="2"/>
   </r>
   <r>
     <x v="2"/>
   </r>
   <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
     <x v="2"/>
   </r>
   <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="9"/>
+  </r>
+  <r>
     <x v="4"/>
   </r>
   <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
     <x v="2"/>
   </r>
   <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
     <x v="4"/>
   </r>
   <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="3"/>
   </r>
   <r>
     <x v="4"/>
   </r>
   <r>
-    <x v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
   </r>
   <r>
     <x v="4"/>
   </r>
   <r>
-    <x v="1"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="13"/>
   </r>
   <r>
     <x v="3"/>
@@ -7089,970 +8019,40 @@
     <x v="3"/>
   </r>
   <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
     <x v="5"/>
   </r>
   <r>
+    <x v="3"/>
+  </r>
+  <r>
     <x v="2"/>
   </r>
   <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
     <x v="3"/>
   </r>
   <r>
     <x v="3"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="8"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="9"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="10"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="8"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="8"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="11"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="13"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="9"/>
-  </r>
-  <r>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="9"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="9"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="9"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="9"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="9"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="9"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="9"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="13"/>
-  </r>
-  <r>
-    <x v="9"/>
-  </r>
-  <r>
-    <x v="9"/>
-  </r>
-  <r>
-    <x v="9"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="9"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="9"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="9"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="9"/>
-  </r>
-  <r>
-    <x v="9"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="9"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="10"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="9"/>
-  </r>
-  <r>
-    <x v="9"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="13"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="9"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="9"/>
-  </r>
-  <r>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="14"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="11"/>
-  </r>
-  <r>
-    <x v="14"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="9"/>
-  </r>
-  <r>
-    <x v="9"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="9"/>
-  </r>
-  <r>
-    <x v="9"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="13"/>
-  </r>
-  <r>
-    <x v="13"/>
-  </r>
-  <r>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="13"/>
-  </r>
-  <r>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="13"/>
-  </r>
-  <r>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="9"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="9"/>
-  </r>
-  <r>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="9"/>
-  </r>
-  <r>
-    <x v="14"/>
-  </r>
-  <r>
-    <x v="13"/>
-  </r>
-  <r>
-    <x v="8"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="9"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="4"/>
   </r>
   <r>
     <x v="0"/>
@@ -8061,7 +8061,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表4" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表4" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C19" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="1">
     <pivotField axis="axisRow" dataField="1" showAll="0">
@@ -8163,7 +8163,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="D3:F8" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="1">
     <pivotField axis="axisRow" dataField="1" showAll="0">
@@ -8221,7 +8221,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表6" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="F10:H15" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="1">
     <pivotField axis="axisRow" dataField="1" showAll="0">
@@ -8279,7 +8279,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表2" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表2" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="F2:H6" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="1">
     <pivotField axis="axisRow" dataField="1" showAll="0">
@@ -8333,7 +8333,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C18" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="1">
     <pivotField axis="axisRow" dataField="1" showAll="0">
@@ -8431,7 +8431,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表3" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C18" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="1">
     <pivotField axis="axisRow" dataField="1" showAll="0">
@@ -8794,14 +8794,14 @@
   <dimension ref="A3:J47"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C3" activeCellId="1" sqref="B3 C3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.1640625" customWidth="1"/>
-    <col min="2" max="2" width="27.5" customWidth="1"/>
-    <col min="3" max="3" width="25.6640625" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" customWidth="1"/>
+    <col min="3" max="3" width="26.1640625" customWidth="1"/>
     <col min="5" max="5" width="29.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="29.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.6640625" customWidth="1"/>
@@ -8868,10 +8868,10 @@
         <v>279</v>
       </c>
       <c r="B7" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C7" s="12">
-        <v>0.1928374655647383</v>
+        <v>0.19559228650137742</v>
       </c>
       <c r="E7" s="13" t="s">
         <v>296</v>
@@ -8964,10 +8964,10 @@
         <v>284</v>
       </c>
       <c r="B13" s="11">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C13" s="12">
-        <v>0.35261707988980717</v>
+        <v>0.34986225895316803</v>
       </c>
       <c r="E13" s="13" t="s">
         <v>301</v>
@@ -9060,7 +9060,7 @@
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="26">
         <f>SUM(B4:B9)</f>
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B23" s="26" t="s">
         <v>517</v>
@@ -9070,7 +9070,7 @@
       </c>
       <c r="D23" s="16">
         <f>SUM(B4:B6)/A23</f>
-        <v>0.25242718446601942</v>
+        <v>0.25</v>
       </c>
       <c r="F23" s="26">
         <f>SUM(B4:B6,B10:B12)</f>
@@ -9095,7 +9095,7 @@
       </c>
       <c r="D24" s="16">
         <f>SUM(B7:B9)/A23</f>
-        <v>0.74757281553398058</v>
+        <v>0.75</v>
       </c>
       <c r="F24" s="26"/>
       <c r="G24" s="26"/>
@@ -9110,7 +9110,7 @@
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="26">
         <f>SUM(B10:B15)</f>
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B25" s="26" t="s">
         <v>523</v>
@@ -9120,7 +9120,7 @@
       </c>
       <c r="D25" s="16">
         <f>SUM(B10:B12)/A25</f>
-        <v>0.27350427350427353</v>
+        <v>0.27467811158798283</v>
       </c>
       <c r="F25" s="26"/>
       <c r="G25" s="26"/>
@@ -9139,7 +9139,7 @@
       </c>
       <c r="D26" s="16">
         <f>SUM(B13:B15)/A25</f>
-        <v>0.72649572649572647</v>
+        <v>0.72532188841201717</v>
       </c>
       <c r="F26" s="26">
         <f>SUM(B7:B9,B13:B17)</f>
@@ -9153,7 +9153,7 @@
       </c>
       <c r="I26" s="12">
         <f>SUM(B7:B9)/F26</f>
-        <v>0.28205128205128205</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -9177,7 +9177,7 @@
       </c>
       <c r="I27" s="12">
         <f>SUM(B13:B15)/F26</f>
-        <v>0.62271062271062272</v>
+        <v>0.61904761904761907</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -9203,7 +9203,7 @@
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="26">
         <f>A23</f>
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B31" s="26" t="s">
         <v>527</v>
@@ -9213,7 +9213,7 @@
       </c>
       <c r="D31" s="12">
         <f>SUM(B4,B7)/A31</f>
-        <v>0.83495145631067957</v>
+        <v>0.83653846153846156</v>
       </c>
       <c r="F31" s="26">
         <f>A42</f>
@@ -9227,7 +9227,7 @@
       </c>
       <c r="I31" s="12">
         <f>SUM(B4,B7)/F31</f>
-        <v>0.28859060402684567</v>
+        <v>0.29194630872483224</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
@@ -9238,7 +9238,7 @@
       </c>
       <c r="D32" s="12">
         <f>SUM(B5,B8)/A31</f>
-        <v>0.11650485436893204</v>
+        <v>0.11538461538461539</v>
       </c>
       <c r="F32" s="26"/>
       <c r="G32" s="26"/>
@@ -9247,7 +9247,7 @@
       </c>
       <c r="I32" s="12">
         <f>SUM(B10,B13)/F31</f>
-        <v>0.62751677852348997</v>
+        <v>0.62416107382550334</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
@@ -9258,7 +9258,7 @@
       </c>
       <c r="D33" s="12">
         <f>SUM(B6,B9)/A31</f>
-        <v>4.8543689320388349E-2</v>
+        <v>4.807692307692308E-2</v>
       </c>
       <c r="F33" s="26"/>
       <c r="G33" s="26"/>
@@ -9273,7 +9273,7 @@
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="26">
         <f>A25</f>
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B34" s="26" t="s">
         <v>523</v>
@@ -9283,7 +9283,7 @@
       </c>
       <c r="D34" s="12">
         <f>SUM(B10,B13)/A34</f>
-        <v>0.79914529914529919</v>
+        <v>0.79828326180257514</v>
       </c>
       <c r="F34" s="26">
         <f>A44</f>
@@ -9308,7 +9308,7 @@
       </c>
       <c r="D35" s="12">
         <f>SUM(B11,B14)/A34</f>
-        <v>6.4102564102564097E-2</v>
+        <v>6.4377682403433473E-2</v>
       </c>
       <c r="F35" s="26"/>
       <c r="G35" s="26"/>
@@ -9328,7 +9328,7 @@
       </c>
       <c r="D36" s="12">
         <f>SUM(B12,B15)/A34</f>
-        <v>0.13675213675213677</v>
+        <v>0.13733905579399142</v>
       </c>
       <c r="F36" s="26"/>
       <c r="G36" s="26"/>
@@ -9555,6 +9555,24 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="F23:F25"/>
+    <mergeCell ref="G23:G25"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="F26:F28"/>
+    <mergeCell ref="G26:G28"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="F31:F33"/>
+    <mergeCell ref="G31:G33"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="F34:F36"/>
+    <mergeCell ref="G34:G36"/>
     <mergeCell ref="F45:F47"/>
     <mergeCell ref="G45:G47"/>
     <mergeCell ref="A46:A47"/>
@@ -9569,24 +9587,6 @@
     <mergeCell ref="G42:G44"/>
     <mergeCell ref="A44:A45"/>
     <mergeCell ref="B44:B45"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="F31:F33"/>
-    <mergeCell ref="G31:G33"/>
-    <mergeCell ref="A34:A36"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="F34:F36"/>
-    <mergeCell ref="G34:G36"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="F23:F25"/>
-    <mergeCell ref="G23:G25"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="F26:F28"/>
-    <mergeCell ref="G26:G28"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9597,8 +9597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K366"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A279" workbookViewId="0">
-      <selection activeCell="F300" sqref="F300"/>
+    <sheetView showRuler="0" topLeftCell="A228" workbookViewId="0">
+      <selection activeCell="D249" sqref="D249"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14794,7 +14794,7 @@
         <v>372</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>2</v>
+        <v>256</v>
       </c>
       <c r="E248" s="1">
         <v>1</v>
@@ -14804,7 +14804,7 @@
       </c>
       <c r="K248" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>01100</v>
+        <v>00100</v>
       </c>
     </row>
     <row r="249" spans="1:11" x14ac:dyDescent="0.2">
@@ -17299,7 +17299,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F143"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A164" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="A160" workbookViewId="0">
       <selection activeCell="D3" sqref="D3:F8"/>
     </sheetView>
   </sheetViews>
@@ -18516,8 +18516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H364"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView showRuler="0" topLeftCell="A208" workbookViewId="0">
+      <selection activeCell="A228" sqref="A228"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22412,7 +22412,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
@@ -26708,15 +26708,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:F18"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.1640625" customWidth="1"/>
-    <col min="2" max="2" width="23.33203125" customWidth="1"/>
-    <col min="3" max="3" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="19.5" customWidth="1"/>
+    <col min="3" max="3" width="22.1640625" customWidth="1"/>
     <col min="5" max="6" width="29.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -26764,10 +26764,10 @@
         <v>279</v>
       </c>
       <c r="B6" s="11">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C6" s="12">
-        <v>0.14942528735632185</v>
+        <v>0.15517241379310345</v>
       </c>
       <c r="E6" s="13" t="s">
         <v>296</v>
@@ -26854,10 +26854,10 @@
         <v>284</v>
       </c>
       <c r="B12" s="11">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C12" s="12">
-        <v>0.36781609195402298</v>
+        <v>0.36206896551724138</v>
       </c>
       <c r="E12" s="13" t="s">
         <v>301</v>
@@ -26953,8 +26953,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K176"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="F110" sqref="F110"/>
+    <sheetView showRuler="0" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -28171,7 +28171,7 @@
         <v>372</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>2</v>
+        <v>256</v>
       </c>
       <c r="E58" s="1">
         <v>1</v>
@@ -28181,7 +28181,7 @@
       </c>
       <c r="K58" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>01100</v>
+        <v>00100</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
